--- a/lcbot/leng.xlsx
+++ b/lcbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Русский</t>
   </si>
@@ -145,7 +145,103 @@
     <t>Действие отменено</t>
   </si>
   <si>
-    <t xml:space="preserve">Настройки </t>
+    <t>Добавить группу</t>
+  </si>
+  <si>
+    <t>Укажите задержку с которойбудут приходить сообщения от клиентов в группу</t>
+  </si>
+  <si>
+    <t>Укажите тематику группы</t>
+  </si>
+  <si>
+    <t>Список групп</t>
+  </si>
+  <si>
+    <t>Ошибка, попробуйте повторно</t>
+  </si>
+  <si>
+    <t>Группа создана</t>
+  </si>
+  <si>
+    <t>Добавте меня в группу и используйте команду /chat_id чтобы я связался с группой</t>
+  </si>
+  <si>
+    <t>Укажите новую задержку</t>
+  </si>
+  <si>
+    <t>Изменения внесены успешно</t>
+  </si>
+  <si>
+    <t>Укажите новую тему</t>
+  </si>
+  <si>
+    <t>Точно удалить группу?</t>
+  </si>
+  <si>
+    <t>Удаление прошло успешно</t>
+  </si>
+  <si>
+    <t>Выберите по какой тематике искать юриста</t>
+  </si>
+  <si>
+    <t>Спасибо, ваша заявка отправлена в группы.</t>
+  </si>
+  <si>
+    <t>Опишите свою проблему</t>
+  </si>
+  <si>
+    <t>Вот список ваших запровсов</t>
+  </si>
+  <si>
+    <t>Текст поиска:</t>
+  </si>
+  <si>
+    <t>Удалить поиск</t>
+  </si>
+  <si>
+    <t>Поиск по запросу удален</t>
+  </si>
+  <si>
+    <t>Введите код клиента</t>
+  </si>
+  <si>
+    <t>Такого кода нет в нашей базе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста введите первое сообщение для клиента </t>
+  </si>
+  <si>
+    <t>Пользователь №</t>
+  </si>
+  <si>
+    <t>Отправить сообщение</t>
+  </si>
+  <si>
+    <t>Закончить разговор</t>
+  </si>
+  <si>
+    <t>Разговор окончен</t>
+  </si>
+  <si>
+    <t>Выберите категорию настроек</t>
+  </si>
+  <si>
+    <t>Изменение текстов бота</t>
+  </si>
+  <si>
+    <t>Изменение пароля</t>
+  </si>
+  <si>
+    <t>Пожалуйста введите новый пароль</t>
+  </si>
+  <si>
+    <t>Изменение прошло успешно</t>
+  </si>
+  <si>
+    <t>Вот старые фразы, измените их и отошлите мне фаил вновь.</t>
+  </si>
+  <si>
+    <t>Изменение настроек</t>
   </si>
 </sst>
 </file>
@@ -492,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -710,101 +806,168 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>

--- a/lcbot/leng.xlsx
+++ b/lcbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Русский</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>Изменение настроек</t>
+  </si>
+  <si>
+    <t>Простите, вы пытаетесь отправить контактные данные, уберите их из сообщения и отправте его.</t>
+  </si>
+  <si>
+    <t>Загрузить переписку</t>
+  </si>
+  <si>
+    <t>Вот список переписок, выберите 1 из них и я пришлю вам текстовый фаил переписки:</t>
+  </si>
+  <si>
+    <t>Вот фаил переписки</t>
   </si>
 </sst>
 </file>
@@ -588,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,17 +981,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lcbot/leng.xlsx
+++ b/lcbot/leng.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -11,17 +11,20 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
   <si>
     <t>Русский</t>
   </si>
   <si>
-    <t>Здравствуйте, выберите тип вашего аккаунта.</t>
+    <t>Здравствуйте, выберите язык</t>
+  </si>
+  <si>
+    <t>Здрастуйте, виберіть мову</t>
   </si>
   <si>
     <t>Юрист</t>
@@ -115,12 +118,12 @@
     <t>Здравствуйте, пройдите пожалуйста опрос.</t>
   </si>
   <si>
+    <t>Спасибо за пройденный опрос.</t>
+  </si>
+  <si>
     <t>Точно разослать опрос?</t>
   </si>
   <si>
-    <t>Спасибо за пройденный опрос.</t>
-  </si>
-  <si>
     <t>Статистика опросов</t>
   </si>
   <si>
@@ -145,27 +148,30 @@
     <t>Действие отменено</t>
   </si>
   <si>
+    <t>Изменение настроек</t>
+  </si>
+  <si>
+    <t>Список групп</t>
+  </si>
+  <si>
     <t>Добавить группу</t>
   </si>
   <si>
+    <t>Добавте меня в группу и используйте команду /chat_id чтобы я связался с группой</t>
+  </si>
+  <si>
     <t>Укажите задержку с которойбудут приходить сообщения от клиентов в группу</t>
   </si>
   <si>
     <t>Укажите тематику группы</t>
   </si>
   <si>
-    <t>Список групп</t>
-  </si>
-  <si>
     <t>Ошибка, попробуйте повторно</t>
   </si>
   <si>
     <t>Группа создана</t>
   </si>
   <si>
-    <t>Добавте меня в группу и используйте команду /chat_id чтобы я связался с группой</t>
-  </si>
-  <si>
     <t>Укажите новую задержку</t>
   </si>
   <si>
@@ -181,10 +187,13 @@
     <t>Удаление прошло успешно</t>
   </si>
   <si>
-    <t>Выберите по какой тематике искать юриста</t>
-  </si>
-  <si>
-    <t>Спасибо, ваша заявка отправлена в группы.</t>
+    <t xml:space="preserve">Ваш вопрос попадет к юристам специализирующимся в делах по разводам, алиментам, разделу имущества, а также других делах из области семейного права.
+Введите текст своего вопроса 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спасибо за обращение, вопрос отправлен в рабочие группы с Вами скоро свяжутся
+</t>
   </si>
   <si>
     <t>Опишите свою проблему</t>
@@ -241,9 +250,6 @@
     <t>Вот старые фразы, измените их и отошлите мне фаил вновь.</t>
   </si>
   <si>
-    <t>Изменение настроек</t>
-  </si>
-  <si>
     <t>Простите, вы пытаетесь отправить контактные данные, уберите их из сообщения и отправте его.</t>
   </si>
   <si>
@@ -254,6 +260,392 @@
   </si>
   <si>
     <t>Вот фаил переписки</t>
+  </si>
+  <si>
+    <t>Видео презентация бота</t>
+  </si>
+  <si>
+    <t>Тех поддержка</t>
+  </si>
+  <si>
+    <t>Отзывы</t>
+  </si>
+  <si>
+    <t>Безопасная сделка</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>Мои запросы</t>
+  </si>
+  <si>
+    <t>Редактирование меню пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видео 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на кнопку клиента будет перекидывать в чат, где будут обсуждаться вопросы связанные с работой бота.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на эту кнопку клиенту необходимо отправить сообщение в котором будет объяснятся суть безопасной сделки. Скорей всего это будет ссылка на статью в которой будет все детально расписано. </t>
+  </si>
+  <si>
+    <t>Клиента будет перекидывать на канал Бота в котором будут размещаться все новости связанные с его работой, а также опросы которые мы будем рассылать через бота.</t>
+  </si>
+  <si>
+    <t>Посмотреть отзывы</t>
+  </si>
+  <si>
+    <t>Оставить отзыв</t>
+  </si>
+  <si>
+    <t>Введите юзернейм юриста и текст отзыва в одном сообщении, например -  @LegalProtection рекомендую к сотрудничеству, обращались за разработкой договора, все сделали в сроки и по разумной цене.</t>
+  </si>
+  <si>
+    <t>Отзыв отправлен</t>
+  </si>
+  <si>
+    <t>Вы не указали юзернейм для отзыва</t>
+  </si>
+  <si>
+    <t>Введите юзернейм юриста по которому хотите посмотреть отзывы, например - @LegalProtection</t>
+  </si>
+  <si>
+    <t>По вашему запросу ничего не найдено</t>
+  </si>
+  <si>
+    <t>У нас появились новые функции</t>
+  </si>
+  <si>
+    <t>Дублировать</t>
+  </si>
+  <si>
+    <t>Отправить в общий чат</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Ваш запрос обновился</t>
+  </si>
+  <si>
+    <t>Клієнт</t>
+  </si>
+  <si>
+    <t>Ласкаво просимо в меню юриста</t>
+  </si>
+  <si>
+    <t>Ввести код клієнта</t>
+  </si>
+  <si>
+    <t>Ласкаво просимо в меню клієнта</t>
+  </si>
+  <si>
+    <t>Знайти юриста</t>
+  </si>
+  <si>
+    <t>Видалити повідомлення
+пошуку</t>
+  </si>
+  <si>
+    <t>Введіть пароль адміністратора</t>
+  </si>
+  <si>
+    <t>Скасування</t>
+  </si>
+  <si>
+    <t>Ласкаво просимо в адмінпанель</t>
+  </si>
+  <si>
+    <t>Ви неправильно ввели пароль</t>
+  </si>
+  <si>
+    <t>Вхід в адмінпанель скасовано</t>
+  </si>
+  <si>
+    <t>Опитування</t>
+  </si>
+  <si>
+    <t>Розсилання</t>
+  </si>
+  <si>
+    <t>Налаштування груп</t>
+  </si>
+  <si>
+    <t>Всього опитувань:</t>
+  </si>
+  <si>
+    <t>Додати опитування</t>
+  </si>
+  <si>
+    <t>Введіть назву опитування</t>
+  </si>
+  <si>
+    <t>Введіть перше питання</t>
+  </si>
+  <si>
+    <t>Введіть варіанти відповіді на питання у форматі:
+Відповідь №1
+Відповідь №2
+Відповідь №3</t>
+  </si>
+  <si>
+    <t>Опитування успішно створений, тепер ви можете змінити його або додати до нього питання через меню опитувань, а так-ж розіслати його користувачам.</t>
+  </si>
+  <si>
+    <t>Ви точно хочете видалити опитування?</t>
+  </si>
+  <si>
+    <t>Введіть питання у форматі:
+Питання
+Відповідь №1
+Відповідь №2</t>
+  </si>
+  <si>
+    <t>Питання додано</t>
+  </si>
+  <si>
+    <t>Яке питання видалити?</t>
+  </si>
+  <si>
+    <t>Питання видалений</t>
+  </si>
+  <si>
+    <t>Незабаром всі користувачі отримувати запит на опитування</t>
+  </si>
+  <si>
+    <t>Здрастуйте, пройдіть будь ласка опитування.</t>
+  </si>
+  <si>
+    <t>Спасибі за пройдений опитування.</t>
+  </si>
+  <si>
+    <t>Точно розіслати опитування?</t>
+  </si>
+  <si>
+    <t>Статистика опитувань</t>
+  </si>
+  <si>
+    <t>Виберіть опитування яким потрібно зробити розсилку</t>
+  </si>
+  <si>
+    <t>Виберіть опитування яким показати статистику</t>
+  </si>
+  <si>
+    <t>Це опитування ще не проведено</t>
+  </si>
+  <si>
+    <t>Виберіть фільтри для розсилки за опитуванням, з самого початку всі фільтри включені.</t>
+  </si>
+  <si>
+    <t>Далі &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Введіть текст для розсилки</t>
+  </si>
+  <si>
+    <t>Дію скасовано</t>
+  </si>
+  <si>
+    <t>Зміна налаштувань</t>
+  </si>
+  <si>
+    <t>Список груп</t>
+  </si>
+  <si>
+    <t>Додати групу</t>
+  </si>
+  <si>
+    <t>Добавте мене в групу і використовуйте команду /chat_id щоб я зв'язався з групою</t>
+  </si>
+  <si>
+    <t>Вкажіть затримку з якій будуть приходити повідомлення від клієнтів в групу</t>
+  </si>
+  <si>
+    <t>Вкажіть тематику групи</t>
+  </si>
+  <si>
+    <t>Помилка, спробуйте повторно</t>
+  </si>
+  <si>
+    <t>Група створена</t>
+  </si>
+  <si>
+    <t>Вкажіть нову затримку</t>
+  </si>
+  <si>
+    <t>Зміни внесені успішно</t>
+  </si>
+  <si>
+    <t>Вкажіть нову тему</t>
+  </si>
+  <si>
+    <t>Точно видалити групу?</t>
+  </si>
+  <si>
+    <t>Видалення пройшло успішно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваше питання потрапить до юристів, які спеціалізуються у справах щодо розлучень, аліментів, поділу майна, а також інших справах з галузі сімейного права.
+Введіть текст свого питання 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дякуємо за звернення, питання відправлений у робочі групи з Вами скоро зв'яжуться
+</t>
+  </si>
+  <si>
+    <t>Опишіть свою проблему</t>
+  </si>
+  <si>
+    <t>Ось список ваших запровсов</t>
+  </si>
+  <si>
+    <t>Текст пошуку:</t>
+  </si>
+  <si>
+    <t>Видалити пошук</t>
+  </si>
+  <si>
+    <t>Пошук за запитом видалений</t>
+  </si>
+  <si>
+    <t>Введіть код клієнта</t>
+  </si>
+  <si>
+    <t>Такого коду немає в нашій базі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Будь ласка, введіть перше повідомлення для клієнта </t>
+  </si>
+  <si>
+    <t>Користувач №</t>
+  </si>
+  <si>
+    <t>Надіслати повідомлення</t>
+  </si>
+  <si>
+    <t>Закінчити розмову</t>
+  </si>
+  <si>
+    <t>Розмову закінчено</t>
+  </si>
+  <si>
+    <t>Виберіть категорію налаштувань</t>
+  </si>
+  <si>
+    <t>Зміна текстів бота</t>
+  </si>
+  <si>
+    <t>Зміна пароля</t>
+  </si>
+  <si>
+    <t>Ласка введіть новий пароль</t>
+  </si>
+  <si>
+    <t>Зміна пройшло успішно</t>
+  </si>
+  <si>
+    <t>Ось старі фрази, змініть їх, і відішліть мені фаил знову.</t>
+  </si>
+  <si>
+    <t>Вибачте, ви намагаєтеся відправити контактні дані, приберіть їх з повідомлення і відправте його.</t>
+  </si>
+  <si>
+    <t>Завантажити листування</t>
+  </si>
+  <si>
+    <t>Ось список листувань, виберіть 1 з них і я пришлю вам текстовий фаил листування:</t>
+  </si>
+  <si>
+    <t>Ось фаил листування</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Відео презентація бота</t>
+  </si>
+  <si>
+    <t>Відгуки</t>
+  </si>
+  <si>
+    <t>Безпечна угода</t>
+  </si>
+  <si>
+    <t>Новини</t>
+  </si>
+  <si>
+    <t>Мої запити</t>
+  </si>
+  <si>
+    <t>Редагування меню користувача</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відео 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При натисканні на кнопку клієнта буде перекидати в чат, де будуть обговорюватися питання, пов'язані з роботою бота. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При натисканні на цю кнопку клієнту необхідно відправити повідомлення, в якому буде пояснюється суть безпечної угоди. Скоріше всього це буде посилання на статтю в якій буде все детально розписано. </t>
+  </si>
+  <si>
+    <t>Клієнта буде перекидати на канал Бота в якому розміщуватимуться новини пов'язані з його роботою, а також опитування які ми будемо розсилати через бота.</t>
+  </si>
+  <si>
+    <t>Подивитися відгуки</t>
+  </si>
+  <si>
+    <t>Залишити відгук</t>
+  </si>
+  <si>
+    <t>Введіть юзернейм юриста і текст відгуку в одному повідомленні, наприклад - @LegalProtection рекомендую до співпраці, зверталися за розробкою договору, все зробили в терміни і за розумною ціною.</t>
+  </si>
+  <si>
+    <t>Відгук відправлений</t>
+  </si>
+  <si>
+    <t>Ви не вказали юзернейм для відкликання</t>
+  </si>
+  <si>
+    <t>Введіть юзернейм юриста по якому хочете подивитися відгуки, наприклад - @LegalProtection</t>
+  </si>
+  <si>
+    <t>За вашим запитом нічого не знайдено</t>
+  </si>
+  <si>
+    <t>У нас з'явилися нові функції</t>
+  </si>
+  <si>
+    <t>Дублювати</t>
+  </si>
+  <si>
+    <t>Відправити в загальний чат</t>
+  </si>
+  <si>
+    <t>Ваш запит оновився</t>
+  </si>
+  <si>
+    <t>Тех підтримка</t>
+  </si>
+  <si>
+    <t>Группа тех. Поддержки</t>
+  </si>
+  <si>
+    <t>Група тех. Підтримки</t>
+  </si>
+  <si>
+    <t>Группа с новостями</t>
+  </si>
+  <si>
+    <t>Група з новинами</t>
   </si>
 </sst>
 </file>
@@ -598,407 +990,908 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/lcbot/leng.xlsx
+++ b/lcbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>Русский</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>Клиент</t>
-  </si>
-  <si>
-    <t>Добро пожаловать в меню юриста</t>
-  </si>
-  <si>
-    <t>Ввести код клиента</t>
   </si>
   <si>
     <t>Добро пожаловать в меню клиента</t>
@@ -142,9 +136,6 @@
     <t>Далее &gt;&gt;</t>
   </si>
   <si>
-    <t>Введите текст для рассылки</t>
-  </si>
-  <si>
     <t>Действие отменено</t>
   </si>
   <si>
@@ -160,12 +151,6 @@
     <t>Добавте меня в группу и используйте команду /chat_id чтобы я связался с группой</t>
   </si>
   <si>
-    <t>Укажите задержку с которойбудут приходить сообщения от клиентов в группу</t>
-  </si>
-  <si>
-    <t>Укажите тематику группы</t>
-  </si>
-  <si>
     <t>Ошибка, попробуйте повторно</t>
   </si>
   <si>
@@ -185,11 +170,6 @@
   </si>
   <si>
     <t>Удаление прошло успешно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш вопрос попадет к юристам специализирующимся в делах по разводам, алиментам, разделу имущества, а также других делах из области семейного права.
-Введите текст своего вопроса 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Спасибо за обращение, вопрос отправлен в рабочие группы с Вами скоро свяжутся
@@ -211,27 +191,6 @@
     <t>Поиск по запросу удален</t>
   </si>
   <si>
-    <t>Введите код клиента</t>
-  </si>
-  <si>
-    <t>Такого кода нет в нашей базе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пожалуйста введите первое сообщение для клиента </t>
-  </si>
-  <si>
-    <t>Пользователь №</t>
-  </si>
-  <si>
-    <t>Отправить сообщение</t>
-  </si>
-  <si>
-    <t>Закончить разговор</t>
-  </si>
-  <si>
-    <t>Разговор окончен</t>
-  </si>
-  <si>
     <t>Выберите категорию настроек</t>
   </si>
   <si>
@@ -334,12 +293,6 @@
   </si>
   <si>
     <t>Клієнт</t>
-  </si>
-  <si>
-    <t>Ласкаво просимо в меню юриста</t>
-  </si>
-  <si>
-    <t>Ввести код клієнта</t>
   </si>
   <si>
     <t>Ласкаво просимо в меню клієнта</t>
@@ -445,9 +398,6 @@
     <t>Далі &gt;&gt;</t>
   </si>
   <si>
-    <t>Введіть текст для розсилки</t>
-  </si>
-  <si>
     <t>Дію скасовано</t>
   </si>
   <si>
@@ -463,12 +413,6 @@
     <t>Добавте мене в групу і використовуйте команду /chat_id щоб я зв'язався з групою</t>
   </si>
   <si>
-    <t>Вкажіть затримку з якій будуть приходити повідомлення від клієнтів в групу</t>
-  </si>
-  <si>
-    <t>Вкажіть тематику групи</t>
-  </si>
-  <si>
     <t>Помилка, спробуйте повторно</t>
   </si>
   <si>
@@ -488,11 +432,6 @@
   </si>
   <si>
     <t>Видалення пройшло успішно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваше питання потрапить до юристів, які спеціалізуються у справах щодо розлучень, аліментів, поділу майна, а також інших справах з галузі сімейного права.
-Введіть текст свого питання 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Дякуємо за звернення, питання відправлений у робочі групи з Вами скоро зв'яжуться
@@ -514,27 +453,6 @@
     <t>Пошук за запитом видалений</t>
   </si>
   <si>
-    <t>Введіть код клієнта</t>
-  </si>
-  <si>
-    <t>Такого коду немає в нашій базі</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Будь ласка, введіть перше повідомлення для клієнта </t>
-  </si>
-  <si>
-    <t>Користувач №</t>
-  </si>
-  <si>
-    <t>Надіслати повідомлення</t>
-  </si>
-  <si>
-    <t>Закінчити розмову</t>
-  </si>
-  <si>
-    <t>Розмову закінчено</t>
-  </si>
-  <si>
     <t>Виберіть категорію налаштувань</t>
   </si>
   <si>
@@ -575,9 +493,6 @@
   </si>
   <si>
     <t>Безпечна угода</t>
-  </si>
-  <si>
-    <t>Новини</t>
   </si>
   <si>
     <t>Мої запити</t>
@@ -646,6 +561,65 @@
   </si>
   <si>
     <t>Група з новинами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш вопрос попадет к юристам специализирующимся в делах по разводам, алиментам, разделу имущества, а также других делах из области семейного права.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваше питання потрапить до юристів, які спеціалізуються у справах щодо розлучень, аліментів, поділу майна, а також інших справах з галузі сімейного права.
+</t>
+  </si>
+  <si>
+    <t>Укажите тематику группы на украинском языке.</t>
+  </si>
+  <si>
+    <t>Вкажіть тематику групи на українській мові.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите текст для рассылки для рускоховорящих </t>
+  </si>
+  <si>
+    <t>Введіть текст для розсилки для російськомовних</t>
+  </si>
+  <si>
+    <t>Введите текст для рассылки украиноговорящим пользователям</t>
+  </si>
+  <si>
+    <t>Введіть текст для розсилки україномовним користувачам</t>
+  </si>
+  <si>
+    <t>Это все отзывы</t>
+  </si>
+  <si>
+    <t>Це усі відгуки</t>
+  </si>
+  <si>
+    <t>Введите краткое описание группы на русском</t>
+  </si>
+  <si>
+    <t>Введіть опис групи на російській мові</t>
+  </si>
+  <si>
+    <t>Введите краткое описание группы на украинском</t>
+  </si>
+  <si>
+    <t>Введіть опис групи на українській мові</t>
+  </si>
+  <si>
+    <t>Новини</t>
+  </si>
+  <si>
+    <t>Ваш запрос отправлен в общую группу</t>
+  </si>
+  <si>
+    <t>Ваш запит відіслан до загальної групи</t>
+  </si>
+  <si>
+    <t>Укажите тематику группы на русском языке.</t>
+  </si>
+  <si>
+    <t>Вкажіть тематику групи на російській мові.</t>
   </si>
 </sst>
 </file>
@@ -992,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,869 +1003,833 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
+        <v>175</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>160</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>161</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
